--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc201_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc201_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4458" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8338" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="8">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -138,11 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -165,26 +189,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true">
-      <c r="A1" t="s" s="3">
+    <row r="1" s="7" customFormat="true">
+      <c r="A1" t="s" s="7">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" t="s" s="7">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" t="s" s="7">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" t="s" s="7">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" t="s" s="7">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" t="s" s="7">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="3">
+      <c r="G1" t="s" s="7">
         <v>7</v>
       </c>
     </row>
@@ -212,28 +236,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="3">
+      <c r="A3" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="3">
+      <c r="B3" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="3">
+      <c r="C3" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="3">
+      <c r="E3" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="3">
+      <c r="F3" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="3">
+      <c r="G3" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="3">
+      <c r="H3" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -258,28 +282,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="3">
+      <c r="B5" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="3">
+      <c r="C5" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="3">
+      <c r="D5" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="3">
+      <c r="E5" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="3">
+      <c r="F5" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="3">
+      <c r="G5" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="3">
+      <c r="H5" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="3">
+      <c r="I5" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -338,10 +362,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="3" t="s">
+      <c r="J7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -385,28 +409,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="3">
+      <c r="A9" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="3">
+      <c r="B9" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="3">
+      <c r="C9" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="3">
+      <c r="E9" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="3">
+      <c r="F9" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="3">
+      <c r="G9" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="3">
+      <c r="H9" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -431,28 +455,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="3">
+      <c r="B11" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="3">
+      <c r="C11" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="3">
+      <c r="D11" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="3">
+      <c r="E11" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="3">
+      <c r="F11" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="3">
+      <c r="G11" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="3">
+      <c r="H11" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="3">
+      <c r="I11" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -540,10 +564,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="3" t="s">
+      <c r="J14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -587,28 +611,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="3">
+      <c r="A16" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="3">
+      <c r="B16" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="3">
+      <c r="C16" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="3">
+      <c r="E16" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="3">
+      <c r="F16" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="3">
+      <c r="G16" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="3">
+      <c r="H16" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -633,28 +657,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="3">
+      <c r="B18" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="3">
+      <c r="C18" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="3">
+      <c r="D18" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="3">
+      <c r="E18" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="3">
+      <c r="F18" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="3">
+      <c r="G18" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="3">
+      <c r="H18" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="3">
+      <c r="I18" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -771,10 +795,10 @@
       <c r="I22">
         <f>((C22-C21)^2+(D22- D21)^2)^.5</f>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K22" s="3" t="s">
+      <c r="J22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L22" t="n">
@@ -818,28 +842,28 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s" s="3">
+      <c r="A24" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B24" t="s" s="3">
+      <c r="B24" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C24" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D24" t="s" s="3">
+      <c r="C24" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D24" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E24" t="s" s="3">
+      <c r="E24" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F24" t="s" s="3">
+      <c r="F24" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G24" t="s" s="3">
+      <c r="G24" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H24" t="s" s="3">
+      <c r="H24" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -864,28 +888,28 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="s" s="3">
+      <c r="B26" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C26" t="s" s="3">
+      <c r="C26" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D26" t="s" s="3">
+      <c r="D26" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E26" t="s" s="3">
+      <c r="E26" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F26" t="s" s="3">
+      <c r="F26" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G26" t="s" s="3">
+      <c r="G26" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H26" t="s" s="3">
+      <c r="H26" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I26" t="s" s="3">
+      <c r="I26" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -944,10 +968,10 @@
       <c r="I28">
         <f>((C28-C27)^2+(D28- D27)^2)^.5</f>
       </c>
-      <c r="J28" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K28" s="3" t="s">
+      <c r="J28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L28" t="n">
@@ -991,28 +1015,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s" s="3">
+      <c r="A30" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B30" t="s" s="3">
+      <c r="B30" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C30" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D30" t="s" s="3">
+      <c r="C30" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D30" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E30" t="s" s="3">
+      <c r="E30" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F30" t="s" s="3">
+      <c r="F30" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G30" t="s" s="3">
+      <c r="G30" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H30" t="s" s="3">
+      <c r="H30" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1037,28 +1061,28 @@
       </c>
     </row>
     <row r="32">
-      <c r="B32" t="s" s="3">
+      <c r="B32" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C32" t="s" s="3">
+      <c r="C32" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D32" t="s" s="3">
+      <c r="D32" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E32" t="s" s="3">
+      <c r="E32" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F32" t="s" s="3">
+      <c r="F32" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G32" t="s" s="3">
+      <c r="G32" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H32" t="s" s="3">
+      <c r="H32" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I32" t="s" s="3">
+      <c r="I32" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1175,10 +1199,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="3" t="s">
+      <c r="J36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1222,28 +1246,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="3">
+      <c r="A38" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="3">
+      <c r="B38" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="3">
+      <c r="C38" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="3">
+      <c r="E38" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="3">
+      <c r="F38" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="3">
+      <c r="G38" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="3">
+      <c r="H38" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1268,28 +1292,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="3">
+      <c r="B40" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="3">
+      <c r="C40" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="3">
+      <c r="D40" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="3">
+      <c r="E40" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="3">
+      <c r="F40" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="3">
+      <c r="G40" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="3">
+      <c r="H40" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="3">
+      <c r="I40" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1348,10 +1372,10 @@
       <c r="I42">
         <f>((C42-C41)^2+(D42- D41)^2)^.5</f>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K42" s="3" t="s">
+      <c r="J42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K42" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L42" t="n">
@@ -1395,28 +1419,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s" s="3">
+      <c r="A44" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B44" t="s" s="3">
+      <c r="B44" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C44" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D44" t="s" s="3">
+      <c r="C44" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D44" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E44" t="s" s="3">
+      <c r="E44" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F44" t="s" s="3">
+      <c r="F44" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G44" t="s" s="3">
+      <c r="G44" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H44" t="s" s="3">
+      <c r="H44" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1441,28 +1465,28 @@
       </c>
     </row>
     <row r="46">
-      <c r="B46" t="s" s="3">
+      <c r="B46" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C46" t="s" s="3">
+      <c r="C46" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D46" t="s" s="3">
+      <c r="D46" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E46" t="s" s="3">
+      <c r="E46" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F46" t="s" s="3">
+      <c r="F46" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G46" t="s" s="3">
+      <c r="G46" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H46" t="s" s="3">
+      <c r="H46" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I46" t="s" s="3">
+      <c r="I46" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1521,10 +1545,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="3" t="s">
+      <c r="J48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1568,28 +1592,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="3">
+      <c r="A50" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="3">
+      <c r="B50" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="3">
+      <c r="C50" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="3">
+      <c r="E50" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="3">
+      <c r="F50" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="3">
+      <c r="G50" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="3">
+      <c r="H50" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1614,28 +1638,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="3">
+      <c r="B52" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="3">
+      <c r="C52" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="3">
+      <c r="D52" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="3">
+      <c r="E52" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="3">
+      <c r="F52" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="3">
+      <c r="G52" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="3">
+      <c r="H52" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="3">
+      <c r="I52" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1781,10 +1805,10 @@
       <c r="I57">
         <f>((C57-C56)^2+(D57- D56)^2)^.5</f>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K57" s="3" t="s">
+      <c r="J57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K57" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L57" t="n">
@@ -1828,28 +1852,28 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="s" s="3">
+      <c r="A59" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B59" t="s" s="3">
+      <c r="B59" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C59" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D59" t="s" s="3">
+      <c r="C59" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E59" t="s" s="3">
+      <c r="E59" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F59" t="s" s="3">
+      <c r="F59" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G59" t="s" s="3">
+      <c r="G59" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H59" t="s" s="3">
+      <c r="H59" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -1874,28 +1898,28 @@
       </c>
     </row>
     <row r="61">
-      <c r="B61" t="s" s="3">
+      <c r="B61" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C61" t="s" s="3">
+      <c r="C61" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D61" t="s" s="3">
+      <c r="D61" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E61" t="s" s="3">
+      <c r="E61" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F61" t="s" s="3">
+      <c r="F61" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G61" t="s" s="3">
+      <c r="G61" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H61" t="s" s="3">
+      <c r="H61" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I61" t="s" s="3">
+      <c r="I61" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -1983,10 +2007,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="3" t="s">
+      <c r="J64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2030,28 +2054,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="3">
+      <c r="A66" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="3">
+      <c r="B66" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="3">
+      <c r="C66" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="3">
+      <c r="E66" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="3">
+      <c r="F66" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="3">
+      <c r="G66" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="3">
+      <c r="H66" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2076,28 +2100,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="3">
+      <c r="B68" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="3">
+      <c r="C68" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="3">
+      <c r="D68" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="3">
+      <c r="E68" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="3">
+      <c r="F68" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="3">
+      <c r="G68" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="3">
+      <c r="H68" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="3">
+      <c r="I68" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2185,10 +2209,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="3" t="s">
+      <c r="J71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2232,28 +2256,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="3">
+      <c r="A73" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="3">
+      <c r="B73" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="3">
+      <c r="C73" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="3">
+      <c r="E73" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="3">
+      <c r="F73" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="3">
+      <c r="G73" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="3">
+      <c r="H73" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2278,28 +2302,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="3">
+      <c r="B75" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="3">
+      <c r="C75" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="3">
+      <c r="D75" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="3">
+      <c r="E75" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="3">
+      <c r="F75" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="3">
+      <c r="G75" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="3">
+      <c r="H75" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="3">
+      <c r="I75" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2387,10 +2411,10 @@
       <c r="I78">
         <f>((C78-C77)^2+(D78- D77)^2)^.5</f>
       </c>
-      <c r="J78" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K78" s="3" t="s">
+      <c r="J78" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L78" t="n">
@@ -2434,28 +2458,28 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="s" s="3">
+      <c r="A80" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B80" t="s" s="3">
+      <c r="B80" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C80" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D80" t="s" s="3">
+      <c r="C80" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D80" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E80" t="s" s="3">
+      <c r="E80" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F80" t="s" s="3">
+      <c r="F80" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G80" t="s" s="3">
+      <c r="G80" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H80" t="s" s="3">
+      <c r="H80" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2480,28 +2504,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="B82" t="s" s="3">
+      <c r="B82" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C82" t="s" s="3">
+      <c r="C82" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D82" t="s" s="3">
+      <c r="D82" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E82" t="s" s="3">
+      <c r="E82" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F82" t="s" s="3">
+      <c r="F82" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G82" t="s" s="3">
+      <c r="G82" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H82" t="s" s="3">
+      <c r="H82" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I82" t="s" s="3">
+      <c r="I82" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2589,10 +2613,10 @@
       <c r="I85">
         <f>((C85-C84)^2+(D85- D84)^2)^.5</f>
       </c>
-      <c r="J85" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K85" s="3" t="s">
+      <c r="J85" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K85" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L85" t="n">
@@ -2636,28 +2660,28 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="s" s="3">
+      <c r="A87" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B87" t="s" s="3">
+      <c r="B87" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C87" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D87" t="s" s="3">
+      <c r="C87" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D87" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E87" t="s" s="3">
+      <c r="E87" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F87" t="s" s="3">
+      <c r="F87" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G87" t="s" s="3">
+      <c r="G87" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H87" t="s" s="3">
+      <c r="H87" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2682,28 +2706,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="B89" t="s" s="3">
+      <c r="B89" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C89" t="s" s="3">
+      <c r="C89" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D89" t="s" s="3">
+      <c r="D89" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E89" t="s" s="3">
+      <c r="E89" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F89" t="s" s="3">
+      <c r="F89" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G89" t="s" s="3">
+      <c r="G89" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H89" t="s" s="3">
+      <c r="H89" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I89" t="s" s="3">
+      <c r="I89" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2762,10 +2786,10 @@
       <c r="I91">
         <f>((C91-C90)^2+(D91- D90)^2)^.5</f>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K91" s="3" t="s">
+      <c r="J91" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K91" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L91" t="n">
@@ -2809,28 +2833,28 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="s" s="3">
+      <c r="A93" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B93" t="s" s="3">
+      <c r="B93" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C93" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D93" t="s" s="3">
+      <c r="C93" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D93" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E93" t="s" s="3">
+      <c r="E93" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F93" t="s" s="3">
+      <c r="F93" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G93" t="s" s="3">
+      <c r="G93" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H93" t="s" s="3">
+      <c r="H93" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -2855,28 +2879,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="s" s="3">
+      <c r="B95" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C95" t="s" s="3">
+      <c r="C95" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D95" t="s" s="3">
+      <c r="D95" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E95" t="s" s="3">
+      <c r="E95" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F95" t="s" s="3">
+      <c r="F95" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G95" t="s" s="3">
+      <c r="G95" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H95" t="s" s="3">
+      <c r="H95" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I95" t="s" s="3">
+      <c r="I95" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -2935,10 +2959,10 @@
       <c r="I97">
         <f>((C97-C96)^2+(D97- D96)^2)^.5</f>
       </c>
-      <c r="J97" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K97" s="3" t="s">
+      <c r="J97" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K97" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L97" t="n">
@@ -2982,28 +3006,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="s" s="3">
+      <c r="A99" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B99" t="s" s="3">
+      <c r="B99" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C99" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D99" t="s" s="3">
+      <c r="C99" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D99" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E99" t="s" s="3">
+      <c r="E99" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F99" t="s" s="3">
+      <c r="F99" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G99" t="s" s="3">
+      <c r="G99" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H99" t="s" s="3">
+      <c r="H99" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3028,28 +3052,28 @@
       </c>
     </row>
     <row r="101">
-      <c r="B101" t="s" s="3">
+      <c r="B101" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C101" t="s" s="3">
+      <c r="C101" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D101" t="s" s="3">
+      <c r="D101" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E101" t="s" s="3">
+      <c r="E101" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F101" t="s" s="3">
+      <c r="F101" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G101" t="s" s="3">
+      <c r="G101" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H101" t="s" s="3">
+      <c r="H101" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I101" t="s" s="3">
+      <c r="I101" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3137,10 +3161,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="3" t="s">
+      <c r="J104" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3184,28 +3208,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="3">
+      <c r="A106" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="3">
+      <c r="B106" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="3">
+      <c r="C106" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="3">
+      <c r="E106" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="3">
+      <c r="F106" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="3">
+      <c r="G106" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="3">
+      <c r="H106" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3230,28 +3254,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="3">
+      <c r="B108" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="3">
+      <c r="C108" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="3">
+      <c r="D108" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="3">
+      <c r="E108" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="3">
+      <c r="F108" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="3">
+      <c r="G108" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="3">
+      <c r="H108" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="3">
+      <c r="I108" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3310,10 +3334,10 @@
       <c r="I110">
         <f>((C110-C109)^2+(D110- D109)^2)^.5</f>
       </c>
-      <c r="J110" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K110" s="3" t="s">
+      <c r="J110" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K110" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L110" t="n">
@@ -3357,28 +3381,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="s" s="3">
+      <c r="A112" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B112" t="s" s="3">
+      <c r="B112" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C112" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D112" t="s" s="3">
+      <c r="C112" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D112" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E112" t="s" s="3">
+      <c r="E112" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F112" t="s" s="3">
+      <c r="F112" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G112" t="s" s="3">
+      <c r="G112" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H112" t="s" s="3">
+      <c r="H112" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3403,28 +3427,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="B114" t="s" s="3">
+      <c r="B114" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C114" t="s" s="3">
+      <c r="C114" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D114" t="s" s="3">
+      <c r="D114" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E114" t="s" s="3">
+      <c r="E114" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F114" t="s" s="3">
+      <c r="F114" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G114" t="s" s="3">
+      <c r="G114" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H114" t="s" s="3">
+      <c r="H114" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I114" t="s" s="3">
+      <c r="I114" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3483,10 +3507,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="3" t="s">
+      <c r="J116" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K116" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3530,28 +3554,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="3">
+      <c r="A118" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="3">
+      <c r="B118" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D118" t="s" s="3">
+      <c r="C118" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D118" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="3">
+      <c r="E118" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="3">
+      <c r="F118" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="3">
+      <c r="G118" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="3">
+      <c r="H118" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3576,28 +3600,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="3">
+      <c r="B120" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="3">
+      <c r="C120" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="3">
+      <c r="D120" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="3">
+      <c r="E120" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="3">
+      <c r="F120" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="3">
+      <c r="G120" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="3">
+      <c r="H120" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="3">
+      <c r="I120" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3656,10 +3680,10 @@
       <c r="I122">
         <f>((C122-C121)^2+(D122- D121)^2)^.5</f>
       </c>
-      <c r="J122" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K122" s="3" t="s">
+      <c r="J122" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K122" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L122" t="n">
@@ -3703,28 +3727,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="s" s="3">
+      <c r="A124" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B124" t="s" s="3">
+      <c r="B124" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C124" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D124" t="s" s="3">
+      <c r="C124" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D124" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E124" t="s" s="3">
+      <c r="E124" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F124" t="s" s="3">
+      <c r="F124" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G124" t="s" s="3">
+      <c r="G124" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H124" t="s" s="3">
+      <c r="H124" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3749,28 +3773,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="B126" t="s" s="3">
+      <c r="B126" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C126" t="s" s="3">
+      <c r="C126" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D126" t="s" s="3">
+      <c r="D126" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E126" t="s" s="3">
+      <c r="E126" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F126" t="s" s="3">
+      <c r="F126" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G126" t="s" s="3">
+      <c r="G126" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H126" t="s" s="3">
+      <c r="H126" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I126" t="s" s="3">
+      <c r="I126" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -3829,10 +3853,10 @@
       <c r="I128">
         <f>((C128-C127)^2+(D128- D127)^2)^.5</f>
       </c>
-      <c r="J128" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K128" s="3" t="s">
+      <c r="J128" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K128" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L128" t="n">
@@ -3876,28 +3900,28 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="s" s="3">
+      <c r="A130" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B130" t="s" s="3">
+      <c r="B130" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C130" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D130" t="s" s="3">
+      <c r="C130" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D130" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E130" t="s" s="3">
+      <c r="E130" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F130" t="s" s="3">
+      <c r="F130" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G130" t="s" s="3">
+      <c r="G130" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H130" t="s" s="3">
+      <c r="H130" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -3922,28 +3946,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="B132" t="s" s="3">
+      <c r="B132" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C132" t="s" s="3">
+      <c r="C132" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D132" t="s" s="3">
+      <c r="D132" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E132" t="s" s="3">
+      <c r="E132" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F132" t="s" s="3">
+      <c r="F132" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G132" t="s" s="3">
+      <c r="G132" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H132" t="s" s="3">
+      <c r="H132" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I132" t="s" s="3">
+      <c r="I132" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4002,10 +4026,10 @@
       <c r="I134">
         <f>((C134-C133)^2+(D134- D133)^2)^.5</f>
       </c>
-      <c r="J134" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K134" s="3" t="s">
+      <c r="J134" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K134" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L134" t="n">
@@ -4049,28 +4073,28 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="s" s="3">
+      <c r="A136" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B136" t="s" s="3">
+      <c r="B136" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C136" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D136" t="s" s="3">
+      <c r="C136" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D136" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E136" t="s" s="3">
+      <c r="E136" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F136" t="s" s="3">
+      <c r="F136" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G136" t="s" s="3">
+      <c r="G136" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H136" t="s" s="3">
+      <c r="H136" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4095,28 +4119,28 @@
       </c>
     </row>
     <row r="138">
-      <c r="B138" t="s" s="3">
+      <c r="B138" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C138" t="s" s="3">
+      <c r="C138" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D138" t="s" s="3">
+      <c r="D138" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E138" t="s" s="3">
+      <c r="E138" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F138" t="s" s="3">
+      <c r="F138" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G138" t="s" s="3">
+      <c r="G138" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H138" t="s" s="3">
+      <c r="H138" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I138" t="s" s="3">
+      <c r="I138" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4175,10 +4199,10 @@
       <c r="I140">
         <f>((C140-C139)^2+(D140- D139)^2)^.5</f>
       </c>
-      <c r="J140" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K140" s="3" t="s">
+      <c r="J140" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K140" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L140" t="n">
@@ -4222,28 +4246,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="s" s="3">
+      <c r="A142" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B142" t="s" s="3">
+      <c r="B142" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C142" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D142" t="s" s="3">
+      <c r="C142" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D142" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E142" t="s" s="3">
+      <c r="E142" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F142" t="s" s="3">
+      <c r="F142" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G142" t="s" s="3">
+      <c r="G142" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H142" t="s" s="3">
+      <c r="H142" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4268,28 +4292,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="B144" t="s" s="3">
+      <c r="B144" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C144" t="s" s="3">
+      <c r="C144" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D144" t="s" s="3">
+      <c r="D144" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E144" t="s" s="3">
+      <c r="E144" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F144" t="s" s="3">
+      <c r="F144" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G144" t="s" s="3">
+      <c r="G144" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H144" t="s" s="3">
+      <c r="H144" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I144" t="s" s="3">
+      <c r="I144" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4348,10 +4372,10 @@
       <c r="I146">
         <f>((C146-C145)^2+(D146- D145)^2)^.5</f>
       </c>
-      <c r="J146" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K146" s="3" t="s">
+      <c r="J146" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K146" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L146" t="n">
@@ -4395,28 +4419,28 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="s" s="3">
+      <c r="A148" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B148" t="s" s="3">
+      <c r="B148" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C148" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D148" t="s" s="3">
+      <c r="C148" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D148" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E148" t="s" s="3">
+      <c r="E148" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F148" t="s" s="3">
+      <c r="F148" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G148" t="s" s="3">
+      <c r="G148" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H148" t="s" s="3">
+      <c r="H148" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4441,28 +4465,28 @@
       </c>
     </row>
     <row r="150">
-      <c r="B150" t="s" s="3">
+      <c r="B150" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C150" t="s" s="3">
+      <c r="C150" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D150" t="s" s="3">
+      <c r="D150" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E150" t="s" s="3">
+      <c r="E150" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F150" t="s" s="3">
+      <c r="F150" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G150" t="s" s="3">
+      <c r="G150" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H150" t="s" s="3">
+      <c r="H150" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I150" t="s" s="3">
+      <c r="I150" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4521,10 +4545,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K152" s="3" t="s">
+      <c r="J152" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K152" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4568,28 +4592,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="3">
+      <c r="A154" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="3">
+      <c r="B154" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D154" t="s" s="3">
+      <c r="C154" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D154" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="3">
+      <c r="E154" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="3">
+      <c r="F154" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="3">
+      <c r="G154" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="3">
+      <c r="H154" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4614,28 +4638,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="3">
+      <c r="B156" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="3">
+      <c r="C156" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="3">
+      <c r="D156" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="3">
+      <c r="E156" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="3">
+      <c r="F156" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="3">
+      <c r="G156" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="3">
+      <c r="H156" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="3">
+      <c r="I156" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4694,10 +4718,10 @@
       <c r="I158">
         <f>((C158-C157)^2+(D158- D157)^2)^.5</f>
       </c>
-      <c r="J158" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K158" s="3" t="s">
+      <c r="J158" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K158" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L158" t="n">
@@ -4741,28 +4765,28 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="s" s="3">
+      <c r="A160" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B160" t="s" s="3">
+      <c r="B160" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C160" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D160" t="s" s="3">
+      <c r="C160" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D160" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E160" t="s" s="3">
+      <c r="E160" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F160" t="s" s="3">
+      <c r="F160" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G160" t="s" s="3">
+      <c r="G160" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H160" t="s" s="3">
+      <c r="H160" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -4787,28 +4811,28 @@
       </c>
     </row>
     <row r="162">
-      <c r="B162" t="s" s="3">
+      <c r="B162" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C162" t="s" s="3">
+      <c r="C162" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D162" t="s" s="3">
+      <c r="D162" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E162" t="s" s="3">
+      <c r="E162" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F162" t="s" s="3">
+      <c r="F162" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G162" t="s" s="3">
+      <c r="G162" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H162" t="s" s="3">
+      <c r="H162" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I162" t="s" s="3">
+      <c r="I162" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -4925,10 +4949,10 @@
       <c r="I166">
         <f>((C166-C165)^2+(D166- D165)^2)^.5</f>
       </c>
-      <c r="J166" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K166" s="3" t="s">
+      <c r="J166" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K166" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L166" t="n">
@@ -4972,28 +4996,28 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="s" s="3">
+      <c r="A168" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B168" t="s" s="3">
+      <c r="B168" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C168" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D168" t="s" s="3">
+      <c r="C168" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D168" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E168" t="s" s="3">
+      <c r="E168" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F168" t="s" s="3">
+      <c r="F168" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G168" t="s" s="3">
+      <c r="G168" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H168" t="s" s="3">
+      <c r="H168" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5018,28 +5042,28 @@
       </c>
     </row>
     <row r="170">
-      <c r="B170" t="s" s="3">
+      <c r="B170" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C170" t="s" s="3">
+      <c r="C170" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D170" t="s" s="3">
+      <c r="D170" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E170" t="s" s="3">
+      <c r="E170" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F170" t="s" s="3">
+      <c r="F170" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G170" t="s" s="3">
+      <c r="G170" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H170" t="s" s="3">
+      <c r="H170" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I170" t="s" s="3">
+      <c r="I170" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5098,10 +5122,10 @@
       <c r="I172">
         <f>((C172-C171)^2+(D172- D171)^2)^.5</f>
       </c>
-      <c r="J172" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K172" s="3" t="s">
+      <c r="J172" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K172" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L172" t="n">
@@ -5145,28 +5169,28 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="s" s="3">
+      <c r="A174" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B174" t="s" s="3">
+      <c r="B174" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C174" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D174" t="s" s="3">
+      <c r="C174" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D174" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E174" t="s" s="3">
+      <c r="E174" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F174" t="s" s="3">
+      <c r="F174" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G174" t="s" s="3">
+      <c r="G174" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H174" t="s" s="3">
+      <c r="H174" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5191,28 +5215,28 @@
       </c>
     </row>
     <row r="176">
-      <c r="B176" t="s" s="3">
+      <c r="B176" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C176" t="s" s="3">
+      <c r="C176" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D176" t="s" s="3">
+      <c r="D176" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E176" t="s" s="3">
+      <c r="E176" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F176" t="s" s="3">
+      <c r="F176" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G176" t="s" s="3">
+      <c r="G176" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H176" t="s" s="3">
+      <c r="H176" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I176" t="s" s="3">
+      <c r="I176" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5300,10 +5324,10 @@
       <c r="I179">
         <f>((C179-C178)^2+(D179- D178)^2)^.5</f>
       </c>
-      <c r="J179" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K179" s="3" t="s">
+      <c r="J179" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K179" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L179" t="n">
@@ -5347,28 +5371,28 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="s" s="3">
+      <c r="A181" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B181" t="s" s="3">
+      <c r="B181" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C181" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D181" t="s" s="3">
+      <c r="C181" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D181" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E181" t="s" s="3">
+      <c r="E181" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F181" t="s" s="3">
+      <c r="F181" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G181" t="s" s="3">
+      <c r="G181" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H181" t="s" s="3">
+      <c r="H181" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5393,28 +5417,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="B183" t="s" s="3">
+      <c r="B183" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C183" t="s" s="3">
+      <c r="C183" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D183" t="s" s="3">
+      <c r="D183" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E183" t="s" s="3">
+      <c r="E183" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F183" t="s" s="3">
+      <c r="F183" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G183" t="s" s="3">
+      <c r="G183" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H183" t="s" s="3">
+      <c r="H183" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I183" t="s" s="3">
+      <c r="I183" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5502,10 +5526,10 @@
       <c r="I186">
         <f>((C186-C185)^2+(D186- D185)^2)^.5</f>
       </c>
-      <c r="J186" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K186" s="3" t="s">
+      <c r="J186" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K186" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L186" t="n">
@@ -5549,28 +5573,28 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="s" s="3">
+      <c r="A188" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B188" t="s" s="3">
+      <c r="B188" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C188" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D188" t="s" s="3">
+      <c r="C188" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D188" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E188" t="s" s="3">
+      <c r="E188" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F188" t="s" s="3">
+      <c r="F188" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G188" t="s" s="3">
+      <c r="G188" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H188" t="s" s="3">
+      <c r="H188" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5595,28 +5619,28 @@
       </c>
     </row>
     <row r="190">
-      <c r="B190" t="s" s="3">
+      <c r="B190" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C190" t="s" s="3">
+      <c r="C190" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D190" t="s" s="3">
+      <c r="D190" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E190" t="s" s="3">
+      <c r="E190" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F190" t="s" s="3">
+      <c r="F190" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G190" t="s" s="3">
+      <c r="G190" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H190" t="s" s="3">
+      <c r="H190" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I190" t="s" s="3">
+      <c r="I190" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5675,10 +5699,10 @@
       <c r="I192">
         <f>((C192-C191)^2+(D192- D191)^2)^.5</f>
       </c>
-      <c r="J192" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K192" s="3" t="s">
+      <c r="J192" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K192" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L192" t="n">
@@ -5722,28 +5746,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="s" s="3">
+      <c r="A194" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B194" t="s" s="3">
+      <c r="B194" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C194" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D194" t="s" s="3">
+      <c r="C194" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D194" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E194" t="s" s="3">
+      <c r="E194" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F194" t="s" s="3">
+      <c r="F194" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G194" t="s" s="3">
+      <c r="G194" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H194" t="s" s="3">
+      <c r="H194" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5768,28 +5792,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="B196" t="s" s="3">
+      <c r="B196" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C196" t="s" s="3">
+      <c r="C196" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D196" t="s" s="3">
+      <c r="D196" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E196" t="s" s="3">
+      <c r="E196" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F196" t="s" s="3">
+      <c r="F196" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G196" t="s" s="3">
+      <c r="G196" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H196" t="s" s="3">
+      <c r="H196" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I196" t="s" s="3">
+      <c r="I196" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -5848,10 +5872,10 @@
       <c r="I198">
         <f>((C198-C197)^2+(D198- D197)^2)^.5</f>
       </c>
-      <c r="J198" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K198" s="3" t="s">
+      <c r="J198" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K198" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L198" t="n">
@@ -5895,28 +5919,28 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="s" s="3">
+      <c r="A200" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B200" t="s" s="3">
+      <c r="B200" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C200" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D200" t="s" s="3">
+      <c r="C200" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D200" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E200" t="s" s="3">
+      <c r="E200" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F200" t="s" s="3">
+      <c r="F200" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G200" t="s" s="3">
+      <c r="G200" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H200" t="s" s="3">
+      <c r="H200" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -5941,28 +5965,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="B202" t="s" s="3">
+      <c r="B202" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C202" t="s" s="3">
+      <c r="C202" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D202" t="s" s="3">
+      <c r="D202" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E202" t="s" s="3">
+      <c r="E202" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F202" t="s" s="3">
+      <c r="F202" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G202" t="s" s="3">
+      <c r="G202" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H202" t="s" s="3">
+      <c r="H202" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I202" t="s" s="3">
+      <c r="I202" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6021,10 +6045,10 @@
       <c r="I204">
         <f>((C204-C203)^2+(D204- D203)^2)^.5</f>
       </c>
-      <c r="J204" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K204" s="3" t="s">
+      <c r="J204" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K204" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L204" t="n">
@@ -6068,28 +6092,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="s" s="3">
+      <c r="A206" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B206" t="s" s="3">
+      <c r="B206" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C206" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D206" t="s" s="3">
+      <c r="C206" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D206" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E206" t="s" s="3">
+      <c r="E206" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F206" t="s" s="3">
+      <c r="F206" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G206" t="s" s="3">
+      <c r="G206" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H206" t="s" s="3">
+      <c r="H206" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6114,28 +6138,28 @@
       </c>
     </row>
     <row r="208">
-      <c r="B208" t="s" s="3">
+      <c r="B208" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C208" t="s" s="3">
+      <c r="C208" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D208" t="s" s="3">
+      <c r="D208" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E208" t="s" s="3">
+      <c r="E208" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F208" t="s" s="3">
+      <c r="F208" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G208" t="s" s="3">
+      <c r="G208" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H208" t="s" s="3">
+      <c r="H208" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I208" t="s" s="3">
+      <c r="I208" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6194,10 +6218,10 @@
       <c r="I210">
         <f>((C210-C209)^2+(D210- D209)^2)^.5</f>
       </c>
-      <c r="J210" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K210" s="3" t="s">
+      <c r="J210" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K210" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L210" t="n">
@@ -6241,28 +6265,28 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="s" s="3">
+      <c r="A212" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B212" t="s" s="3">
+      <c r="B212" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C212" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D212" t="s" s="3">
+      <c r="C212" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D212" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E212" t="s" s="3">
+      <c r="E212" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F212" t="s" s="3">
+      <c r="F212" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G212" t="s" s="3">
+      <c r="G212" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H212" t="s" s="3">
+      <c r="H212" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6287,28 +6311,28 @@
       </c>
     </row>
     <row r="214">
-      <c r="B214" t="s" s="3">
+      <c r="B214" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C214" t="s" s="3">
+      <c r="C214" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D214" t="s" s="3">
+      <c r="D214" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E214" t="s" s="3">
+      <c r="E214" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F214" t="s" s="3">
+      <c r="F214" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G214" t="s" s="3">
+      <c r="G214" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H214" t="s" s="3">
+      <c r="H214" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I214" t="s" s="3">
+      <c r="I214" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6396,10 +6420,10 @@
       <c r="I217">
         <f>((C217-C216)^2+(D217- D216)^2)^.5</f>
       </c>
-      <c r="J217" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K217" s="3" t="s">
+      <c r="J217" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K217" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L217" t="n">
@@ -6443,28 +6467,28 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="s" s="3">
+      <c r="A219" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B219" t="s" s="3">
+      <c r="B219" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C219" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D219" t="s" s="3">
+      <c r="C219" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D219" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E219" t="s" s="3">
+      <c r="E219" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F219" t="s" s="3">
+      <c r="F219" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G219" t="s" s="3">
+      <c r="G219" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H219" t="s" s="3">
+      <c r="H219" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6489,28 +6513,28 @@
       </c>
     </row>
     <row r="221">
-      <c r="B221" t="s" s="3">
+      <c r="B221" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C221" t="s" s="3">
+      <c r="C221" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D221" t="s" s="3">
+      <c r="D221" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E221" t="s" s="3">
+      <c r="E221" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F221" t="s" s="3">
+      <c r="F221" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G221" t="s" s="3">
+      <c r="G221" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H221" t="s" s="3">
+      <c r="H221" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I221" t="s" s="3">
+      <c r="I221" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6569,10 +6593,10 @@
       <c r="I223">
         <f>((C223-C222)^2+(D223- D222)^2)^.5</f>
       </c>
-      <c r="J223" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K223" s="3" t="s">
+      <c r="J223" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K223" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L223" t="n">
@@ -6616,28 +6640,28 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="s" s="3">
+      <c r="A225" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B225" t="s" s="3">
+      <c r="B225" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C225" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D225" t="s" s="3">
+      <c r="C225" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D225" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E225" t="s" s="3">
+      <c r="E225" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F225" t="s" s="3">
+      <c r="F225" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G225" t="s" s="3">
+      <c r="G225" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H225" t="s" s="3">
+      <c r="H225" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6662,28 +6686,28 @@
       </c>
     </row>
     <row r="227">
-      <c r="B227" t="s" s="3">
+      <c r="B227" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C227" t="s" s="3">
+      <c r="C227" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D227" t="s" s="3">
+      <c r="D227" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E227" t="s" s="3">
+      <c r="E227" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F227" t="s" s="3">
+      <c r="F227" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G227" t="s" s="3">
+      <c r="G227" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H227" t="s" s="3">
+      <c r="H227" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I227" t="s" s="3">
+      <c r="I227" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -6742,10 +6766,10 @@
       <c r="I229">
         <f>((C229-C228)^2+(D229- D228)^2)^.5</f>
       </c>
-      <c r="J229" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K229" s="3" t="s">
+      <c r="J229" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K229" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L229" t="n">
@@ -6789,28 +6813,28 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="s" s="3">
+      <c r="A231" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B231" t="s" s="3">
+      <c r="B231" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C231" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D231" t="s" s="3">
+      <c r="C231" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D231" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E231" t="s" s="3">
+      <c r="E231" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F231" t="s" s="3">
+      <c r="F231" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G231" t="s" s="3">
+      <c r="G231" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H231" t="s" s="3">
+      <c r="H231" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -6835,28 +6859,28 @@
       </c>
     </row>
     <row r="233">
-      <c r="B233" t="s" s="3">
+      <c r="B233" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C233" t="s" s="3">
+      <c r="C233" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D233" t="s" s="3">
+      <c r="D233" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E233" t="s" s="3">
+      <c r="E233" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F233" t="s" s="3">
+      <c r="F233" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G233" t="s" s="3">
+      <c r="G233" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H233" t="s" s="3">
+      <c r="H233" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I233" t="s" s="3">
+      <c r="I233" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7002,10 +7026,10 @@
       <c r="I238">
         <f>((C238-C237)^2+(D238- D237)^2)^.5</f>
       </c>
-      <c r="J238" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K238" s="3" t="s">
+      <c r="J238" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K238" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L238" t="n">
@@ -7049,28 +7073,28 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="s" s="3">
+      <c r="A240" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B240" t="s" s="3">
+      <c r="B240" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C240" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D240" t="s" s="3">
+      <c r="C240" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D240" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E240" t="s" s="3">
+      <c r="E240" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F240" t="s" s="3">
+      <c r="F240" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G240" t="s" s="3">
+      <c r="G240" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H240" t="s" s="3">
+      <c r="H240" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7095,28 +7119,28 @@
       </c>
     </row>
     <row r="242">
-      <c r="B242" t="s" s="3">
+      <c r="B242" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C242" t="s" s="3">
+      <c r="C242" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D242" t="s" s="3">
+      <c r="D242" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E242" t="s" s="3">
+      <c r="E242" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F242" t="s" s="3">
+      <c r="F242" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G242" t="s" s="3">
+      <c r="G242" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H242" t="s" s="3">
+      <c r="H242" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I242" t="s" s="3">
+      <c r="I242" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7204,10 +7228,10 @@
       <c r="I245">
         <f>((C245-C244)^2+(D245- D244)^2)^.5</f>
       </c>
-      <c r="J245" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K245" s="3" t="s">
+      <c r="J245" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K245" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L245" t="n">
@@ -7251,28 +7275,28 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="s" s="3">
+      <c r="A247" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B247" t="s" s="3">
+      <c r="B247" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C247" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D247" t="s" s="3">
+      <c r="C247" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D247" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E247" t="s" s="3">
+      <c r="E247" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F247" t="s" s="3">
+      <c r="F247" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G247" t="s" s="3">
+      <c r="G247" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H247" t="s" s="3">
+      <c r="H247" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7297,28 +7321,28 @@
       </c>
     </row>
     <row r="249">
-      <c r="B249" t="s" s="3">
+      <c r="B249" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C249" t="s" s="3">
+      <c r="C249" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D249" t="s" s="3">
+      <c r="D249" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E249" t="s" s="3">
+      <c r="E249" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F249" t="s" s="3">
+      <c r="F249" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G249" t="s" s="3">
+      <c r="G249" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H249" t="s" s="3">
+      <c r="H249" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I249" t="s" s="3">
+      <c r="I249" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7406,10 +7430,10 @@
       <c r="I252">
         <f>((C252-C251)^2+(D252- D251)^2)^.5</f>
       </c>
-      <c r="J252" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K252" s="3" t="s">
+      <c r="J252" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K252" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L252" t="n">
@@ -7453,28 +7477,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="s" s="3">
+      <c r="A254" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B254" t="s" s="3">
+      <c r="B254" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C254" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D254" t="s" s="3">
+      <c r="C254" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D254" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E254" t="s" s="3">
+      <c r="E254" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F254" t="s" s="3">
+      <c r="F254" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G254" t="s" s="3">
+      <c r="G254" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H254" t="s" s="3">
+      <c r="H254" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7499,28 +7523,28 @@
       </c>
     </row>
     <row r="256">
-      <c r="B256" t="s" s="3">
+      <c r="B256" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C256" t="s" s="3">
+      <c r="C256" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D256" t="s" s="3">
+      <c r="D256" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E256" t="s" s="3">
+      <c r="E256" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F256" t="s" s="3">
+      <c r="F256" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G256" t="s" s="3">
+      <c r="G256" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H256" t="s" s="3">
+      <c r="H256" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I256" t="s" s="3">
+      <c r="I256" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7666,10 +7690,10 @@
       <c r="I261">
         <f>((C261-C260)^2+(D261- D260)^2)^.5</f>
       </c>
-      <c r="J261" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K261" s="3" t="s">
+      <c r="J261" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K261" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L261" t="n">
@@ -7713,28 +7737,28 @@
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="s" s="3">
+      <c r="A263" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B263" t="s" s="3">
+      <c r="B263" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C263" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D263" t="s" s="3">
+      <c r="C263" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D263" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E263" t="s" s="3">
+      <c r="E263" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F263" t="s" s="3">
+      <c r="F263" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G263" t="s" s="3">
+      <c r="G263" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H263" t="s" s="3">
+      <c r="H263" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7759,28 +7783,28 @@
       </c>
     </row>
     <row r="265">
-      <c r="B265" t="s" s="3">
+      <c r="B265" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C265" t="s" s="3">
+      <c r="C265" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D265" t="s" s="3">
+      <c r="D265" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E265" t="s" s="3">
+      <c r="E265" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F265" t="s" s="3">
+      <c r="F265" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G265" t="s" s="3">
+      <c r="G265" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H265" t="s" s="3">
+      <c r="H265" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I265" t="s" s="3">
+      <c r="I265" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -7868,10 +7892,10 @@
       <c r="I268">
         <f>((C268-C267)^2+(D268- D267)^2)^.5</f>
       </c>
-      <c r="J268" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K268" s="3" t="s">
+      <c r="J268" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K268" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L268" t="n">
@@ -7915,28 +7939,28 @@
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="s" s="3">
+      <c r="A270" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B270" t="s" s="3">
+      <c r="B270" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C270" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D270" t="s" s="3">
+      <c r="C270" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D270" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E270" t="s" s="3">
+      <c r="E270" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F270" t="s" s="3">
+      <c r="F270" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G270" t="s" s="3">
+      <c r="G270" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H270" t="s" s="3">
+      <c r="H270" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -7961,28 +7985,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="B272" t="s" s="3">
+      <c r="B272" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C272" t="s" s="3">
+      <c r="C272" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D272" t="s" s="3">
+      <c r="D272" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E272" t="s" s="3">
+      <c r="E272" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F272" t="s" s="3">
+      <c r="F272" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G272" t="s" s="3">
+      <c r="G272" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H272" t="s" s="3">
+      <c r="H272" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I272" t="s" s="3">
+      <c r="I272" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8041,10 +8065,10 @@
       <c r="I274">
         <f>((C274-C273)^2+(D274- D273)^2)^.5</f>
       </c>
-      <c r="J274" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K274" s="3" t="s">
+      <c r="J274" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K274" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L274" t="n">
@@ -8088,28 +8112,28 @@
       </c>
     </row>
     <row r="276">
-      <c r="A276" t="s" s="3">
+      <c r="A276" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B276" t="s" s="3">
+      <c r="B276" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C276" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D276" t="s" s="3">
+      <c r="C276" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D276" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E276" t="s" s="3">
+      <c r="E276" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F276" t="s" s="3">
+      <c r="F276" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G276" t="s" s="3">
+      <c r="G276" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H276" t="s" s="3">
+      <c r="H276" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8134,28 +8158,28 @@
       </c>
     </row>
     <row r="278">
-      <c r="B278" t="s" s="3">
+      <c r="B278" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C278" t="s" s="3">
+      <c r="C278" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D278" t="s" s="3">
+      <c r="D278" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E278" t="s" s="3">
+      <c r="E278" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F278" t="s" s="3">
+      <c r="F278" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G278" t="s" s="3">
+      <c r="G278" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H278" t="s" s="3">
+      <c r="H278" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I278" t="s" s="3">
+      <c r="I278" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8272,10 +8296,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="3" t="s">
+      <c r="J282" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8319,28 +8343,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="3">
+      <c r="A284" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="3">
+      <c r="B284" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="3">
+      <c r="C284" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="3">
+      <c r="E284" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="3">
+      <c r="F284" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="3">
+      <c r="G284" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="3">
+      <c r="H284" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8365,28 +8389,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="3">
+      <c r="B286" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="3">
+      <c r="C286" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="3">
+      <c r="D286" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="3">
+      <c r="E286" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="3">
+      <c r="F286" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="3">
+      <c r="G286" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="3">
+      <c r="H286" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="3">
+      <c r="I286" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8445,10 +8469,10 @@
       <c r="I288">
         <f>((C288-C287)^2+(D288- D287)^2)^.5</f>
       </c>
-      <c r="J288" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K288" s="3" t="s">
+      <c r="J288" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K288" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L288" t="n">
@@ -8492,28 +8516,28 @@
       </c>
     </row>
     <row r="290">
-      <c r="A290" t="s" s="3">
+      <c r="A290" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B290" t="s" s="3">
+      <c r="B290" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C290" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D290" t="s" s="3">
+      <c r="C290" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D290" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E290" t="s" s="3">
+      <c r="E290" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F290" t="s" s="3">
+      <c r="F290" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G290" t="s" s="3">
+      <c r="G290" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H290" t="s" s="3">
+      <c r="H290" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8538,28 +8562,28 @@
       </c>
     </row>
     <row r="292">
-      <c r="B292" t="s" s="3">
+      <c r="B292" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C292" t="s" s="3">
+      <c r="C292" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D292" t="s" s="3">
+      <c r="D292" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E292" t="s" s="3">
+      <c r="E292" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F292" t="s" s="3">
+      <c r="F292" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G292" t="s" s="3">
+      <c r="G292" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H292" t="s" s="3">
+      <c r="H292" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I292" t="s" s="3">
+      <c r="I292" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8647,10 +8671,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="3" t="s">
+      <c r="J295" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8694,28 +8718,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="3">
+      <c r="A297" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="3">
+      <c r="B297" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="3">
+      <c r="C297" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="3">
+      <c r="E297" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="3">
+      <c r="F297" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="3">
+      <c r="G297" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="3">
+      <c r="H297" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8740,28 +8764,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="3">
+      <c r="B299" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="3">
+      <c r="C299" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="3">
+      <c r="D299" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="3">
+      <c r="E299" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="3">
+      <c r="F299" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="3">
+      <c r="G299" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="3">
+      <c r="H299" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="3">
+      <c r="I299" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8820,10 +8844,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="3" t="s">
+      <c r="J301" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
@@ -8867,28 +8891,28 @@
       </c>
     </row>
     <row r="303">
-      <c r="A303" t="s" s="3">
+      <c r="A303" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B303" t="s" s="3">
+      <c r="B303" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C303" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D303" t="s" s="3">
+      <c r="C303" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D303" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E303" t="s" s="3">
+      <c r="E303" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F303" t="s" s="3">
+      <c r="F303" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G303" t="s" s="3">
+      <c r="G303" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H303" t="s" s="3">
+      <c r="H303" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -8913,28 +8937,28 @@
       </c>
     </row>
     <row r="305">
-      <c r="B305" t="s" s="3">
+      <c r="B305" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C305" t="s" s="3">
+      <c r="C305" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D305" t="s" s="3">
+      <c r="D305" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E305" t="s" s="3">
+      <c r="E305" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F305" t="s" s="3">
+      <c r="F305" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G305" t="s" s="3">
+      <c r="G305" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H305" t="s" s="3">
+      <c r="H305" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I305" t="s" s="3">
+      <c r="I305" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -8993,10 +9017,10 @@
       <c r="I307">
         <f>((C307-C306)^2+(D307- D306)^2)^.5</f>
       </c>
-      <c r="J307" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K307" s="3" t="s">
+      <c r="J307" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K307" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L307" t="n">
@@ -9040,28 +9064,28 @@
       </c>
     </row>
     <row r="309">
-      <c r="A309" t="s" s="3">
+      <c r="A309" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B309" t="s" s="3">
+      <c r="B309" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C309" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D309" t="s" s="3">
+      <c r="C309" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D309" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E309" t="s" s="3">
+      <c r="E309" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F309" t="s" s="3">
+      <c r="F309" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G309" t="s" s="3">
+      <c r="G309" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H309" t="s" s="3">
+      <c r="H309" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9086,28 +9110,28 @@
       </c>
     </row>
     <row r="311">
-      <c r="B311" t="s" s="3">
+      <c r="B311" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C311" t="s" s="3">
+      <c r="C311" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D311" t="s" s="3">
+      <c r="D311" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E311" t="s" s="3">
+      <c r="E311" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F311" t="s" s="3">
+      <c r="F311" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G311" t="s" s="3">
+      <c r="G311" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H311" t="s" s="3">
+      <c r="H311" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I311" t="s" s="3">
+      <c r="I311" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9195,10 +9219,10 @@
       <c r="I314">
         <f>((C314-C313)^2+(D314- D313)^2)^.5</f>
       </c>
-      <c r="J314" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K314" s="3" t="s">
+      <c r="J314" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K314" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L314" t="n">
@@ -9242,28 +9266,28 @@
       </c>
     </row>
     <row r="316">
-      <c r="A316" t="s" s="3">
+      <c r="A316" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B316" t="s" s="3">
+      <c r="B316" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C316" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D316" t="s" s="3">
+      <c r="C316" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D316" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E316" t="s" s="3">
+      <c r="E316" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F316" t="s" s="3">
+      <c r="F316" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G316" t="s" s="3">
+      <c r="G316" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H316" t="s" s="3">
+      <c r="H316" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9288,28 +9312,28 @@
       </c>
     </row>
     <row r="318">
-      <c r="B318" t="s" s="3">
+      <c r="B318" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C318" t="s" s="3">
+      <c r="C318" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D318" t="s" s="3">
+      <c r="D318" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E318" t="s" s="3">
+      <c r="E318" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F318" t="s" s="3">
+      <c r="F318" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G318" t="s" s="3">
+      <c r="G318" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H318" t="s" s="3">
+      <c r="H318" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I318" t="s" s="3">
+      <c r="I318" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9426,10 +9450,10 @@
       <c r="I322">
         <f>((C322-C321)^2+(D322- D321)^2)^.5</f>
       </c>
-      <c r="J322" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K322" s="3" t="s">
+      <c r="J322" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K322" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L322" t="n">
@@ -9473,28 +9497,28 @@
       </c>
     </row>
     <row r="324">
-      <c r="A324" t="s" s="3">
+      <c r="A324" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B324" t="s" s="3">
+      <c r="B324" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C324" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D324" t="s" s="3">
+      <c r="C324" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D324" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E324" t="s" s="3">
+      <c r="E324" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F324" t="s" s="3">
+      <c r="F324" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G324" t="s" s="3">
+      <c r="G324" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H324" t="s" s="3">
+      <c r="H324" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9519,28 +9543,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="B326" t="s" s="3">
+      <c r="B326" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C326" t="s" s="3">
+      <c r="C326" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D326" t="s" s="3">
+      <c r="D326" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E326" t="s" s="3">
+      <c r="E326" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F326" t="s" s="3">
+      <c r="F326" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G326" t="s" s="3">
+      <c r="G326" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H326" t="s" s="3">
+      <c r="H326" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I326" t="s" s="3">
+      <c r="I326" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9599,10 +9623,10 @@
       <c r="I328">
         <f>((C328-C327)^2+(D328- D327)^2)^.5</f>
       </c>
-      <c r="J328" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K328" s="3" t="s">
+      <c r="J328" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K328" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L328" t="n">
@@ -9646,28 +9670,28 @@
       </c>
     </row>
     <row r="330">
-      <c r="A330" t="s" s="3">
+      <c r="A330" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B330" t="s" s="3">
+      <c r="B330" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C330" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D330" t="s" s="3">
+      <c r="C330" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D330" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E330" t="s" s="3">
+      <c r="E330" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F330" t="s" s="3">
+      <c r="F330" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G330" t="s" s="3">
+      <c r="G330" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H330" t="s" s="3">
+      <c r="H330" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9692,28 +9716,28 @@
       </c>
     </row>
     <row r="332">
-      <c r="B332" t="s" s="3">
+      <c r="B332" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C332" t="s" s="3">
+      <c r="C332" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D332" t="s" s="3">
+      <c r="D332" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E332" t="s" s="3">
+      <c r="E332" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F332" t="s" s="3">
+      <c r="F332" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G332" t="s" s="3">
+      <c r="G332" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H332" t="s" s="3">
+      <c r="H332" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I332" t="s" s="3">
+      <c r="I332" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -9859,10 +9883,10 @@
       <c r="I337">
         <f>((C337-C336)^2+(D337- D336)^2)^.5</f>
       </c>
-      <c r="J337" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K337" s="3" t="s">
+      <c r="J337" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K337" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L337" t="n">
@@ -9906,28 +9930,28 @@
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="s" s="3">
+      <c r="A339" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B339" t="s" s="3">
+      <c r="B339" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C339" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D339" t="s" s="3">
+      <c r="C339" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D339" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E339" t="s" s="3">
+      <c r="E339" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F339" t="s" s="3">
+      <c r="F339" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G339" t="s" s="3">
+      <c r="G339" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H339" t="s" s="3">
+      <c r="H339" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -9952,28 +9976,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="B341" t="s" s="3">
+      <c r="B341" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C341" t="s" s="3">
+      <c r="C341" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D341" t="s" s="3">
+      <c r="D341" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E341" t="s" s="3">
+      <c r="E341" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F341" t="s" s="3">
+      <c r="F341" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G341" t="s" s="3">
+      <c r="G341" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H341" t="s" s="3">
+      <c r="H341" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I341" t="s" s="3">
+      <c r="I341" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10148,10 +10172,10 @@
       <c r="I347">
         <f>((C347-C346)^2+(D347- D346)^2)^.5</f>
       </c>
-      <c r="J347" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K347" s="3" t="s">
+      <c r="J347" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K347" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L347" t="n">
@@ -10195,28 +10219,28 @@
       </c>
     </row>
     <row r="349">
-      <c r="A349" t="s" s="3">
+      <c r="A349" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B349" t="s" s="3">
+      <c r="B349" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C349" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D349" t="s" s="3">
+      <c r="C349" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D349" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E349" t="s" s="3">
+      <c r="E349" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F349" t="s" s="3">
+      <c r="F349" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G349" t="s" s="3">
+      <c r="G349" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H349" t="s" s="3">
+      <c r="H349" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10241,28 +10265,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="B351" t="s" s="3">
+      <c r="B351" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C351" t="s" s="3">
+      <c r="C351" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D351" t="s" s="3">
+      <c r="D351" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E351" t="s" s="3">
+      <c r="E351" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F351" t="s" s="3">
+      <c r="F351" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G351" t="s" s="3">
+      <c r="G351" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H351" t="s" s="3">
+      <c r="H351" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I351" t="s" s="3">
+      <c r="I351" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10350,10 +10374,10 @@
       <c r="I354">
         <f>((C354-C353)^2+(D354- D353)^2)^.5</f>
       </c>
-      <c r="J354" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K354" s="3" t="s">
+      <c r="J354" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K354" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L354" t="n">
@@ -10397,28 +10421,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" t="s" s="3">
+      <c r="A356" t="s" s="7">
         <v>9</v>
       </c>
-      <c r="B356" t="s" s="3">
+      <c r="B356" t="s" s="7">
         <v>10</v>
       </c>
-      <c r="C356" t="s" s="3">
-        <v>11</v>
-      </c>
-      <c r="D356" t="s" s="3">
+      <c r="C356" t="s" s="7">
+        <v>11</v>
+      </c>
+      <c r="D356" t="s" s="7">
         <v>12</v>
       </c>
-      <c r="E356" t="s" s="3">
+      <c r="E356" t="s" s="7">
         <v>13</v>
       </c>
-      <c r="F356" t="s" s="3">
+      <c r="F356" t="s" s="7">
         <v>14</v>
       </c>
-      <c r="G356" t="s" s="3">
+      <c r="G356" t="s" s="7">
         <v>15</v>
       </c>
-      <c r="H356" t="s" s="3">
+      <c r="H356" t="s" s="7">
         <v>16</v>
       </c>
     </row>
@@ -10443,28 +10467,28 @@
       </c>
     </row>
     <row r="358">
-      <c r="B358" t="s" s="3">
+      <c r="B358" t="s" s="7">
         <v>17</v>
       </c>
-      <c r="C358" t="s" s="3">
+      <c r="C358" t="s" s="7">
         <v>18</v>
       </c>
-      <c r="D358" t="s" s="3">
+      <c r="D358" t="s" s="7">
         <v>19</v>
       </c>
-      <c r="E358" t="s" s="3">
+      <c r="E358" t="s" s="7">
         <v>20</v>
       </c>
-      <c r="F358" t="s" s="3">
+      <c r="F358" t="s" s="7">
         <v>21</v>
       </c>
-      <c r="G358" t="s" s="3">
+      <c r="G358" t="s" s="7">
         <v>22</v>
       </c>
-      <c r="H358" t="s" s="3">
+      <c r="H358" t="s" s="7">
         <v>23</v>
       </c>
-      <c r="I358" t="s" s="3">
+      <c r="I358" t="s" s="7">
         <v>11</v>
       </c>
     </row>
@@ -10697,10 +10721,10 @@
       <c r="I366">
         <f>((C366-C365)^2+(D366- D365)^2)^.5</f>
       </c>
-      <c r="J366" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K366" s="3" t="s">
+      <c r="J366" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K366" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L366" t="n">
